--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,23 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Modi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B25CB3-CE94-4C54-BD3C-310EBCF13D2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4C4C8-7719-4678-B2EB-03625618A90C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{F3BD835B-34AB-4E71-9874-0ADB42F83CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Roll Num</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,12 +50,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,23 +393,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83D626A-37DC-46D2-83F1-BB241804FA19}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D391FDE3-B5B5-4A45-A0C5-59A11ED6B796}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -409,6 +491,17 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
